--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ptgs2</t>
+  </si>
+  <si>
+    <t>Cav1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ptgs2</t>
-  </si>
-  <si>
-    <t>Cav1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.716074</v>
+        <v>0.6065093333333333</v>
       </c>
       <c r="H2">
-        <v>2.148222</v>
+        <v>1.819528</v>
       </c>
       <c r="I2">
-        <v>0.004590105285172199</v>
+        <v>0.007874792935517063</v>
       </c>
       <c r="J2">
-        <v>0.0045901052851722</v>
+        <v>0.007874792935517063</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N2">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O2">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P2">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q2">
-        <v>588.0611163747507</v>
+        <v>406.7746377625769</v>
       </c>
       <c r="R2">
-        <v>5292.550047372755</v>
+        <v>3660.971739863192</v>
       </c>
       <c r="S2">
-        <v>0.003831058023254605</v>
+        <v>0.00637576606340156</v>
       </c>
       <c r="T2">
-        <v>0.003831058023254605</v>
+        <v>0.006375766063401558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.716074</v>
+        <v>0.6065093333333333</v>
       </c>
       <c r="H3">
-        <v>2.148222</v>
+        <v>1.819528</v>
       </c>
       <c r="I3">
-        <v>0.004590105285172199</v>
+        <v>0.007874792935517063</v>
       </c>
       <c r="J3">
-        <v>0.0045901052851722</v>
+        <v>0.007874792935517063</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>224.983445</v>
       </c>
       <c r="O3">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P3">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q3">
-        <v>53.70159846497667</v>
+        <v>45.48485307932889</v>
       </c>
       <c r="R3">
-        <v>483.3143861847901</v>
+        <v>409.36367771396</v>
       </c>
       <c r="S3">
-        <v>0.0003498512891468563</v>
+        <v>0.0007129273945325384</v>
       </c>
       <c r="T3">
-        <v>0.0003498512891468565</v>
+        <v>0.0007129273945325382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.6065093333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.819528</v>
+      </c>
+      <c r="I4">
+        <v>0.007874792935517063</v>
+      </c>
+      <c r="J4">
+        <v>0.007874792935517063</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.716074</v>
-      </c>
-      <c r="H4">
-        <v>2.148222</v>
-      </c>
-      <c r="I4">
-        <v>0.004590105285172199</v>
-      </c>
-      <c r="J4">
-        <v>0.0045901052851722</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N4">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O4">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P4">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q4">
-        <v>2.91386264228</v>
+        <v>0.6757747208977779</v>
       </c>
       <c r="R4">
-        <v>26.22476378052</v>
+        <v>6.08197248808</v>
       </c>
       <c r="S4">
-        <v>1.898302156617129E-05</v>
+        <v>1.059206039910362E-05</v>
       </c>
       <c r="T4">
-        <v>1.898302156617129E-05</v>
+        <v>1.059206039910362E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.716074</v>
+        <v>0.6065093333333333</v>
       </c>
       <c r="H5">
-        <v>2.148222</v>
+        <v>1.819528</v>
       </c>
       <c r="I5">
-        <v>0.004590105285172199</v>
+        <v>0.007874792935517063</v>
       </c>
       <c r="J5">
-        <v>0.0045901052851722</v>
+        <v>0.007874792935517063</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N5">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O5">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P5">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q5">
-        <v>59.32994416272933</v>
+        <v>48.76508885791911</v>
       </c>
       <c r="R5">
-        <v>533.969497464564</v>
+        <v>438.8857997212721</v>
       </c>
       <c r="S5">
-        <v>0.0003865184285692915</v>
+        <v>0.0007643416519998342</v>
       </c>
       <c r="T5">
-        <v>0.0003865184285692917</v>
+        <v>0.0007643416519998341</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.716074</v>
+        <v>0.6065093333333333</v>
       </c>
       <c r="H6">
-        <v>2.148222</v>
+        <v>1.819528</v>
       </c>
       <c r="I6">
-        <v>0.004590105285172199</v>
+        <v>0.007874792935517063</v>
       </c>
       <c r="J6">
-        <v>0.0045901052851722</v>
+        <v>0.007874792935517063</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N6">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O6">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P6">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q6">
-        <v>0.5671031584966666</v>
+        <v>0.7123771548248889</v>
       </c>
       <c r="R6">
-        <v>5.10392842647</v>
+        <v>6.411394393424001</v>
       </c>
       <c r="S6">
-        <v>3.694522635275136E-06</v>
+        <v>1.116576518402825E-05</v>
       </c>
       <c r="T6">
-        <v>3.694522635275137E-06</v>
+        <v>1.116576518402825E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>88.69539</v>
       </c>
       <c r="I7">
-        <v>0.1895154124710619</v>
+        <v>0.3838675912571451</v>
       </c>
       <c r="J7">
-        <v>0.1895154124710619</v>
+        <v>0.3838675912571451</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N7">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O7">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P7">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q7">
-        <v>24279.75789312924</v>
+        <v>19828.78809145036</v>
       </c>
       <c r="R7">
-        <v>218517.8210381632</v>
+        <v>178459.0928230532</v>
       </c>
       <c r="S7">
-        <v>0.1581760104333706</v>
+        <v>0.3107954686831783</v>
       </c>
       <c r="T7">
-        <v>0.1581760104333706</v>
+        <v>0.3107954686831783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>88.69539</v>
       </c>
       <c r="I8">
-        <v>0.1895154124710619</v>
+        <v>0.3838675912571451</v>
       </c>
       <c r="J8">
-        <v>0.1895154124710619</v>
+        <v>0.3838675912571451</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>224.983445</v>
       </c>
       <c r="O8">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P8">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q8">
         <v>2217.221599757617</v>
@@ -948,10 +948,10 @@
         <v>19954.99439781855</v>
       </c>
       <c r="S8">
-        <v>0.01444459489423495</v>
+        <v>0.0347526244717022</v>
       </c>
       <c r="T8">
-        <v>0.01444459489423495</v>
+        <v>0.03475262447170219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,40 +980,40 @@
         <v>88.69539</v>
       </c>
       <c r="I9">
-        <v>0.1895154124710619</v>
+        <v>0.3838675912571451</v>
       </c>
       <c r="J9">
-        <v>0.1895154124710619</v>
+        <v>0.3838675912571451</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N9">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O9">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P9">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q9">
-        <v>120.3070182986</v>
+        <v>32.94156639643334</v>
       </c>
       <c r="R9">
-        <v>1082.7631646874</v>
+        <v>296.4740975679</v>
       </c>
       <c r="S9">
-        <v>0.0007837674603416097</v>
+        <v>0.0005163245237237633</v>
       </c>
       <c r="T9">
-        <v>0.0007837674603416097</v>
+        <v>0.0005163245237237631</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>88.69539</v>
       </c>
       <c r="I10">
-        <v>0.1895154124710619</v>
+        <v>0.3838675912571451</v>
       </c>
       <c r="J10">
-        <v>0.1895154124710619</v>
+        <v>0.3838675912571451</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N10">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O10">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P10">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q10">
-        <v>2449.603689093353</v>
+        <v>2377.121195517624</v>
       </c>
       <c r="R10">
-        <v>22046.43320184018</v>
+        <v>21394.09075965861</v>
       </c>
       <c r="S10">
-        <v>0.01595850092036133</v>
+        <v>0.03725888302755966</v>
       </c>
       <c r="T10">
-        <v>0.01595850092036133</v>
+        <v>0.03725888302755966</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>88.69539</v>
       </c>
       <c r="I11">
-        <v>0.1895154124710619</v>
+        <v>0.3838675912571451</v>
       </c>
       <c r="J11">
-        <v>0.1895154124710619</v>
+        <v>0.3838675912571451</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N11">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O11">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P11">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q11">
-        <v>23.41444963001666</v>
+        <v>34.72580228184667</v>
       </c>
       <c r="R11">
-        <v>210.73004667015</v>
+        <v>312.53222053662</v>
       </c>
       <c r="S11">
-        <v>0.0001525387627533635</v>
+        <v>0.0005442905509812477</v>
       </c>
       <c r="T11">
-        <v>0.0001525387627533635</v>
+        <v>0.0005442905509812476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.85464933333333</v>
+        <v>30.12078866666667</v>
       </c>
       <c r="H12">
-        <v>140.563948</v>
+        <v>90.36236599999999</v>
       </c>
       <c r="I12">
-        <v>0.3003429443602524</v>
+        <v>0.3910821495538443</v>
       </c>
       <c r="J12">
-        <v>0.3003429443602524</v>
+        <v>0.3910821495538443</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N12">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O12">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P12">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q12">
-        <v>38478.42177527387</v>
+        <v>20201.45812376583</v>
       </c>
       <c r="R12">
-        <v>346305.7959774648</v>
+        <v>181813.1231138925</v>
       </c>
       <c r="S12">
-        <v>0.2506764388251042</v>
+        <v>0.3166366808048411</v>
       </c>
       <c r="T12">
-        <v>0.2506764388251042</v>
+        <v>0.316636680804841</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.85464933333333</v>
+        <v>30.12078866666667</v>
       </c>
       <c r="H13">
-        <v>140.563948</v>
+        <v>90.36236599999999</v>
       </c>
       <c r="I13">
-        <v>0.3003429443602524</v>
+        <v>0.3910821495538443</v>
       </c>
       <c r="J13">
-        <v>0.3003429443602524</v>
+        <v>0.3910821495538443</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>224.983445</v>
       </c>
       <c r="O13">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P13">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q13">
-        <v>3513.840140426762</v>
+        <v>2258.892933447874</v>
       </c>
       <c r="R13">
-        <v>31624.56126384086</v>
+        <v>20330.03640103087</v>
       </c>
       <c r="S13">
-        <v>0.02289171157141658</v>
+        <v>0.03540577894716412</v>
       </c>
       <c r="T13">
-        <v>0.02289171157141659</v>
+        <v>0.0354057789471641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.85464933333333</v>
+        <v>30.12078866666667</v>
       </c>
       <c r="H14">
-        <v>140.563948</v>
+        <v>90.36236599999999</v>
       </c>
       <c r="I14">
-        <v>0.3003429443602524</v>
+        <v>0.3910821495538443</v>
       </c>
       <c r="J14">
-        <v>0.3003429443602524</v>
+        <v>0.3910821495538443</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N14">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O14">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P14">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q14">
-        <v>190.6618761601866</v>
+        <v>33.56068313502889</v>
       </c>
       <c r="R14">
-        <v>1715.95688544168</v>
+        <v>302.04614821526</v>
       </c>
       <c r="S14">
-        <v>0.001242110199183408</v>
+        <v>0.0005260285296395042</v>
       </c>
       <c r="T14">
-        <v>0.001242110199183408</v>
+        <v>0.000526028529639504</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,14 +1331,14 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.85464933333333</v>
+        <v>30.12078866666667</v>
       </c>
       <c r="H15">
-        <v>140.563948</v>
+        <v>90.36236599999999</v>
       </c>
       <c r="I15">
-        <v>0.3003429443602524</v>
+        <v>0.3910821495538443</v>
       </c>
       <c r="J15">
-        <v>0.3003429443602524</v>
+        <v>0.3910821495538443</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N15">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O15">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P15">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q15">
-        <v>3882.117949696441</v>
+        <v>2421.797745020582</v>
       </c>
       <c r="R15">
-        <v>34939.06154726797</v>
+        <v>21796.17970518523</v>
       </c>
       <c r="S15">
-        <v>0.02529094120368175</v>
+        <v>0.03795914111080107</v>
       </c>
       <c r="T15">
-        <v>0.02529094120368175</v>
+        <v>0.03795914111080106</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.85464933333333</v>
+        <v>30.12078866666667</v>
       </c>
       <c r="H16">
-        <v>140.563948</v>
+        <v>90.36236599999999</v>
       </c>
       <c r="I16">
-        <v>0.3003429443602524</v>
+        <v>0.3910821495538443</v>
       </c>
       <c r="J16">
-        <v>0.3003429443602524</v>
+        <v>0.3910821495538443</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N16">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O16">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P16">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q16">
-        <v>37.10708617710888</v>
+        <v>35.37845265053645</v>
       </c>
       <c r="R16">
-        <v>333.9637755939799</v>
+        <v>318.406073854828</v>
       </c>
       <c r="S16">
-        <v>0.0002417425608664454</v>
+        <v>0.0005545201613985706</v>
       </c>
       <c r="T16">
-        <v>0.0002417425608664455</v>
+        <v>0.0005545201613985704</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.03927433333333333</v>
+        <v>16.72665533333333</v>
       </c>
       <c r="H17">
-        <v>0.117823</v>
+        <v>50.179966</v>
       </c>
       <c r="I17">
-        <v>0.0002517523677789558</v>
+        <v>0.2171754662534935</v>
       </c>
       <c r="J17">
-        <v>0.0002517523677789558</v>
+        <v>0.2171754662534934</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N17">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O17">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P17">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q17">
-        <v>32.25324240912822</v>
+        <v>11218.25962149988</v>
       </c>
       <c r="R17">
-        <v>290.2791816821539</v>
+        <v>100964.3365934989</v>
       </c>
       <c r="S17">
-        <v>0.0002101210905920931</v>
+        <v>0.1758344605224235</v>
       </c>
       <c r="T17">
-        <v>0.0002101210905920931</v>
+        <v>0.1758344605224234</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.03927433333333333</v>
+        <v>16.72665533333333</v>
       </c>
       <c r="H18">
-        <v>0.117823</v>
+        <v>50.179966</v>
       </c>
       <c r="I18">
-        <v>0.0002517523677789558</v>
+        <v>0.2171754662534935</v>
       </c>
       <c r="J18">
-        <v>0.0002517523677789558</v>
+        <v>0.2171754662534934</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>224.983445</v>
       </c>
       <c r="O18">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P18">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q18">
-        <v>2.945358271137223</v>
+        <v>1254.406846740319</v>
       </c>
       <c r="R18">
-        <v>26.508224440235</v>
+        <v>11289.66162066287</v>
       </c>
       <c r="S18">
-        <v>1.91882070107978E-05</v>
+        <v>0.01966151244614613</v>
       </c>
       <c r="T18">
-        <v>1.91882070107978E-05</v>
+        <v>0.01966151244614612</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.03927433333333333</v>
+        <v>16.72665533333333</v>
       </c>
       <c r="H19">
-        <v>0.117823</v>
+        <v>50.179966</v>
       </c>
       <c r="I19">
-        <v>0.0002517523677789558</v>
+        <v>0.2171754662534935</v>
       </c>
       <c r="J19">
-        <v>0.0002517523677789558</v>
+        <v>0.2171754662534934</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N19">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O19">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P19">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q19">
-        <v>0.1598159026866666</v>
+        <v>18.63689512791778</v>
       </c>
       <c r="R19">
-        <v>1.43834312418</v>
+        <v>167.73205615126</v>
       </c>
       <c r="S19">
-        <v>1.041157082457493E-06</v>
+        <v>0.0002921137958288998</v>
       </c>
       <c r="T19">
-        <v>1.041157082457493E-06</v>
+        <v>0.0002921137958288996</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.03927433333333333</v>
+        <v>16.72665533333333</v>
       </c>
       <c r="H20">
-        <v>0.117823</v>
+        <v>50.179966</v>
       </c>
       <c r="I20">
-        <v>0.0002517523677789558</v>
+        <v>0.2171754662534935</v>
       </c>
       <c r="J20">
-        <v>0.0002517523677789558</v>
+        <v>0.2171754662534934</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N20">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O20">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P20">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q20">
-        <v>3.254054753691777</v>
+        <v>1344.871032969737</v>
       </c>
       <c r="R20">
-        <v>29.286492783226</v>
+        <v>12103.83929672764</v>
       </c>
       <c r="S20">
-        <v>2.119928052562521E-05</v>
+        <v>0.02107944374020928</v>
       </c>
       <c r="T20">
-        <v>2.119928052562522E-05</v>
+        <v>0.02107944374020928</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,371 +1703,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.03927433333333333</v>
+        <v>16.72665533333333</v>
       </c>
       <c r="H21">
-        <v>0.117823</v>
+        <v>50.179966</v>
       </c>
       <c r="I21">
-        <v>0.0002517523677789558</v>
+        <v>0.2171754662534935</v>
       </c>
       <c r="J21">
-        <v>0.0002517523677789558</v>
+        <v>0.2171754662534934</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N21">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O21">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P21">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q21">
-        <v>0.03110376648388889</v>
+        <v>19.64633762618089</v>
       </c>
       <c r="R21">
-        <v>0.279933898355</v>
+        <v>176.817038635628</v>
       </c>
       <c r="S21">
-        <v>2.026325679822767E-07</v>
+        <v>0.0003079357488857119</v>
       </c>
       <c r="T21">
-        <v>2.026325679822767E-07</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>78.82870133333334</v>
-      </c>
-      <c r="H22">
-        <v>236.486104</v>
-      </c>
-      <c r="I22">
-        <v>0.5052997855157346</v>
-      </c>
-      <c r="J22">
-        <v>0.5052997855157346</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>821.2295326666666</v>
-      </c>
-      <c r="N22">
-        <v>2463.688598</v>
-      </c>
-      <c r="O22">
-        <v>0.8346340193176814</v>
-      </c>
-      <c r="P22">
-        <v>0.8346340193176814</v>
-      </c>
-      <c r="Q22">
-        <v>64736.45755669358</v>
-      </c>
-      <c r="R22">
-        <v>582628.1180102421</v>
-      </c>
-      <c r="S22">
-        <v>0.4217403909453599</v>
-      </c>
-      <c r="T22">
-        <v>0.4217403909453599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>78.82870133333334</v>
-      </c>
-      <c r="H23">
-        <v>236.486104</v>
-      </c>
-      <c r="I23">
-        <v>0.5052997855157346</v>
-      </c>
-      <c r="J23">
-        <v>0.5052997855157346</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>74.99448166666667</v>
-      </c>
-      <c r="N23">
-        <v>224.983445</v>
-      </c>
-      <c r="O23">
-        <v>0.07621857613528174</v>
-      </c>
-      <c r="P23">
-        <v>0.07621857613528175</v>
-      </c>
-      <c r="Q23">
-        <v>5911.71759694981</v>
-      </c>
-      <c r="R23">
-        <v>53205.45837254829</v>
-      </c>
-      <c r="S23">
-        <v>0.03851323017347255</v>
-      </c>
-      <c r="T23">
-        <v>0.03851323017347256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>78.82870133333334</v>
-      </c>
-      <c r="H24">
-        <v>236.486104</v>
-      </c>
-      <c r="I24">
-        <v>0.5052997855157346</v>
-      </c>
-      <c r="J24">
-        <v>0.5052997855157346</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>4.06922</v>
-      </c>
-      <c r="N24">
-        <v>12.20766</v>
-      </c>
-      <c r="O24">
-        <v>0.004135639682927041</v>
-      </c>
-      <c r="P24">
-        <v>0.004135639682927041</v>
-      </c>
-      <c r="Q24">
-        <v>320.7713280396267</v>
-      </c>
-      <c r="R24">
-        <v>2886.94195235664</v>
-      </c>
-      <c r="S24">
-        <v>0.002089737844753395</v>
-      </c>
-      <c r="T24">
-        <v>0.002089737844753395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>78.82870133333334</v>
-      </c>
-      <c r="H25">
-        <v>236.486104</v>
-      </c>
-      <c r="I25">
-        <v>0.5052997855157346</v>
-      </c>
-      <c r="J25">
-        <v>0.5052997855157346</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>82.85448733333332</v>
-      </c>
-      <c r="N25">
-        <v>248.563462</v>
-      </c>
-      <c r="O25">
-        <v>0.08420687643438035</v>
-      </c>
-      <c r="P25">
-        <v>0.08420687643438036</v>
-      </c>
-      <c r="Q25">
-        <v>6531.311636125783</v>
-      </c>
-      <c r="R25">
-        <v>58781.80472513205</v>
-      </c>
-      <c r="S25">
-        <v>0.04254971660124236</v>
-      </c>
-      <c r="T25">
-        <v>0.04254971660124237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>78.82870133333334</v>
-      </c>
-      <c r="H26">
-        <v>236.486104</v>
-      </c>
-      <c r="I26">
-        <v>0.5052997855157346</v>
-      </c>
-      <c r="J26">
-        <v>0.5052997855157346</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.7919616666666666</v>
-      </c>
-      <c r="N26">
-        <v>2.375885</v>
-      </c>
-      <c r="O26">
-        <v>0.0008048884297294578</v>
-      </c>
-      <c r="P26">
-        <v>0.0008048884297294579</v>
-      </c>
-      <c r="Q26">
-        <v>62.42930968911556</v>
-      </c>
-      <c r="R26">
-        <v>561.8637872020399</v>
-      </c>
-      <c r="S26">
-        <v>0.0004067099509063914</v>
-      </c>
-      <c r="T26">
-        <v>0.0004067099509063915</v>
+        <v>0.0003079357488857117</v>
       </c>
     </row>
   </sheetData>
